--- a/500all/speech_level/speeches_CHRG-114hhrg20173.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20173.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. The subcommittee will come to order.    Without objection, all members may have 5 days to submit statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    The purpose of this hearing is to examine the budget for the Department of State Counterterrorism Bureau, Fiscal Year 2017. I have a lengthy opening statement, but without objection, I will make it a part of the record and make some brief comments.    The purpose of this is to determine the Counterterrorism Bureau's budget. Terrorism is on the rise throughout the world in different places, especially with ISIS. In any event, the administration has asked for a reduction in the Counterterrorism Bureau budget even though that to me is counterproductive in the sense that terrorism is on the rise.    On the other hand, my concern is about evaluations that have or have not been made by the success of what the Counterterrorism Bureau is doing or not doing. Personally, I am not satisfied that the evaluation of how the money is being spent and what we are doing is working. So the purpose of this hearing is to examine both of those, whether the budget should be cut or raised and whether the evaluations are being produced and what are the results of those evaluations.    Without objection, I will allow now the former ranking member of the committee, Mr. Sherman, to make an opening statement from California. You are recognized.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. I will use my opening statement to renew the plea I have been making for the State Department for at least 5 years and that is that you employ a few individuals who are hired solely for their knowledge of Islamic jurisprudence, Islamic history, and Islamic law. To think that we can combat Islamic extremist terrorism without a single person at the State Department who has memorized the Quran means that we don't understand the mental world, the theological world that our potential adversaries live in.    We have a State Department with people who think that you can show the evil of al-Baghdadi if you can show him personally executing a defenseless Yazidi. The fact is they will put that up on their Web page as a recruitment tool. We need people who understand that if you could just get a picture of him eating a ham sandwich, that would undermine ISIS and its recruiting ability.    I remember the conflict between the United States and Indonesia over whether Indonesia would give us samples of avian flu and called an Islamic scholar who said, well, we would turn to the hadith about what the prophet said about rabies, which is, after all, just another virus that infects an animal. That is not the kind of knowledge that you can get at Princeton. Woodrow Wilson did a great job. He did not memorize the Quran.    So we need State Department people to be able to have access onsite to that kind of scholarship and to an understanding of Islamic jurisprudence that is every bit as sophisticated as the knowledge we have on the Vienna Convention on the Law of Treaties and why the Habsburgs took this or that position in the negotiations in 18 whatever when that--we have a Eurocentric body of knowledge in a very smart State Department, and we are going to have to hire just a few people who would never pass the test because it is written by the Woodrow Wilson school and instead could pass the test to demonstrate a real knowledge of Islam.    With that, I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman, for conducting this hearing. I would also like to thank our witness, Mr. Siberell, for being here to discuss the State Department's Counterterrorism Bureau.    In our country's fight against terrorism, one indelible truth has been stated over and over, and it is in order to truly degrade and ultimately defeat foreign terrorists, organizations like ISIS and al-Qaeda, we need a whole government-effort approach. The capacity-building programs funded and coordinated by the State Department's Counterterrorism Bureau are the types of activities in which our Government must continue to engage if we are to be successful in achieving the Bureau's mission of forging partnerships with our partners at home and abroad in counterterrorism law enforcement, counter-threat financing, counter-radicalization efforts, border security, and restricted terrorist travel.    Undoubtedly, the Bureau has worked to accomplish these critical objectives while the State Department has revamped its efforts to tackle one of the hardest aspects of counterterrorism, and that is combating violent extremism.    The new Center for Global Engagement is attempting to effectively coordinate, integrate, and synchronize messaging to foreign audiences that undermines the disinformation espoused by violent extremist groups. To be sure, this is not an easy task, and we will hear in detail from Mr. Siberell on the challenges facing the Bureau.    I am particularly interested in hearing how leadership has addressed a Government Accountability Office report released last year on resources, performance, and coordination within the Bureau.    Finally, it is vital that we ensure that funds appropriated, the Counterterrorism Bureau for these capacity-building programs are being used wisely, and the United States is getting a good return on its investment.    As I stated at the beginning, the Counterterrorism Bureau plays a critical role in our fight against terrorism, particularly with regards to interagency and regional collaboration. I look forward to hearing from our witness today and to discuss the issues that will ensure.    I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Siberell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Siberell. Thank you, Mr. Chairman. Chairman Poe, Ranking Member Keating, members of the subcommittee, thank you for the opportunity to appear before you today.    This afternoon, I would like to briefly highlight the Bureau of Counterterrorism's work to advance the foremost counterterrorism priorities of the United States.    As you noted, Mr. Chairman, I have submitted a longer statement for the record.    As you know, the United States faces a fluid and fast-changing terrorism threat environment. The international community has made progress in degrading terrorism safe havens, but terrorist groups, especially ISIL and al-Qaeda, remain resilient.    Recent attacks in Bamako, Beirut, Brussels, Jakarta, and Paris have demonstrated the reach and continued determination of these groups to commit violence against civilians. These and other attacks have raised the urgency and political will of our partners to act against the evolving threat posed by ISIL, al-Qaeda, and their affiliates.    President Obama has called for the United States to develop more effective partnerships around the world to confront, disrupt, and defeat the global threat from terrorism. The Bureau of Counterterrorism is playing a critical role in developing those partnerships.    Success of U.S. counterterrorism efforts increasingly depends upon capable civilian partners, police, prosecutors, border and aviation security personnel, prison officials, and community leaders. As with our own domestic experience, these actors are on the frontlines in preventing and responding to terrorism in their communities.    The Bureau is leading efforts to build capacity and cooperation among these various civilian actors. We appreciate the Congress' appropriation of $175 million for the Counterterrorism Partnership's Fund in Fiscal Year 2016. We ask for your continued support in Fiscal Year 2017. With these resources we will strengthen the ability of key law enforcement and criminal justice actors from the Sahel to Southeast Asia. We are focusing on supporting countries that can help prevent ISIL's global expansion while not losing sight of al-Qaeda and its affiliates.    We are expanding our engagement with European partners to ensure they enhance capabilities to stem the flow of foreign terrorist fighters, improve information-sharing, and disrupt local terrorist recruitment networks. We believe these efforts are yielding results. Since 2014, 45 countries with which we have engaged have passed new laws or updated existing laws to address foreign terrorist fighters.    Through the Bureau's diplomatic efforts, we now have enhanced information-sharing arrangements with 55 countries to assist efforts to identify, track, and deter the travel of known and suspected terrorists. We have also supported INTERPOL to enhance its ability to share critical foreign terrorist fighter identity data with countries around the world. Fifty-eight countries plus the United Nations now contribute foreign terrorist fighter profiles to INTERPOL.    As part of our Fiscal Year 2017 request, we have also asked for additional funding for our Terrorist Interdiction Program. This program provides a highly valuable capability for countries to strengthen border controls through enhanced technology and training.    Mr. Chairman, as part of our overall strategy, we believe that we must increase our focus on preventing the spread of violent extremism to stop the radicalization, recruitment, and mobilization of people, especially young people, to engage in terrorist activities.    Secretary Kerry has directed the Bureau of Counterterrorism to play the lead role in a more strategic, integrated, and ultimately accountable approach to countering violent extremism. As notified to the Congress, the Department is increasing personnel resources in the Bureau to support this mission and renaming the Bureau as the Bureau of Counterterrorism and Countering Violent Extremism. We will be working very closely with the newly established interagency Global Engagement Center and USAID in this effort.    The Department has also requested additional resources for CVE programming in Fiscal Year 2017, including as part of the Counterterrorism Partnerships Fund to expand programs to help counter violent extremist recruitment and messaging.    Finally, Mr. Chairman, as documented in our statement for the record, we have made changes within the Bureau over the past year to foster a culture of strategic planning, learning, innovation, and collaboration. We have enhanced the monitoring and evaluation of our foreign assistance programming, especially our largest programs. Since I last testified before this committee, we have launched a comprehensive third-party evaluation of our Antiterrorism Assistance Program. That evaluation will be completed later this month. We have also awarded a new third-party evaluation of our CVE programs. We look forward to briefing you and your staff on the results of these evaluations.    Mr. Chairman, there is much more work to do. The terrorism landscape is dynamic, and we must continue to enhance and adapt our efforts. I am proud of what we are accomplishing at the Bureau of Counterterrorism. We have a talented team of people who are committed to the work of countering terrorism and keeping the country safe.    We greatly appreciate the interest of Congress and your committee in support of these efforts. I look forward to your questions and our discussion. Thank you.</t>
   </si>
   <si>
@@ -224,9 +212,6 @@
   </si>
   <si>
     <t>412513</t>
-  </si>
-  <si>
-    <t>Paul Cook</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cook. Thank you very much, sir.    I wanted to ask you about Libya and the decisions that are going to be made about our arming certain individuals. And of course the fear is here we go again. Are we giving this to ISIS, ISIL, Daesh, whatever acronym you want to use or whatever you call them? And my fear with the State Department or any is that the right hand does not talk to the left hand in terms of coordinating this information so we make an informed choice and then we regret it afterwards. Can you briefly comment on that?</t>
@@ -658,11 +643,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -682,13 +665,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -710,11 +691,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -734,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -762,11 +739,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -786,13 +761,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -814,11 +787,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -840,11 +811,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -864,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -892,11 +859,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -916,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -944,11 +907,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -968,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -996,11 +955,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1020,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1048,11 +1003,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1072,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1100,11 +1051,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1124,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1152,11 +1099,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1176,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1204,11 +1147,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1228,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1256,11 +1195,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1280,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1308,11 +1243,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1332,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1360,11 +1291,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1384,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1412,11 +1339,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1436,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1464,11 +1387,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1488,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1514,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1540,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1566,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1592,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1618,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1644,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1670,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1696,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1722,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1748,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1774,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1800,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1826,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1852,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1878,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1904,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1930,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1958,11 +1843,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1982,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" t="s">
-        <v>70</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2008,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2034,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s">
-        <v>70</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2060,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2086,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>70</v>
-      </c>
-      <c r="H57" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2112,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2138,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s">
-        <v>70</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2164,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2190,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" t="s">
-        <v>70</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2216,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2244,11 +2107,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2268,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20173.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20173.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. The subcommittee will come to order.    Without objection, all members may have 5 days to submit statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    The purpose of this hearing is to examine the budget for the Department of State Counterterrorism Bureau, Fiscal Year 2017. I have a lengthy opening statement, but without objection, I will make it a part of the record and make some brief comments.    The purpose of this is to determine the Counterterrorism Bureau's budget. Terrorism is on the rise throughout the world in different places, especially with ISIS. In any event, the administration has asked for a reduction in the Counterterrorism Bureau budget even though that to me is counterproductive in the sense that terrorism is on the rise.    On the other hand, my concern is about evaluations that have or have not been made by the success of what the Counterterrorism Bureau is doing or not doing. Personally, I am not satisfied that the evaluation of how the money is being spent and what we are doing is working. So the purpose of this hearing is to examine both of those, whether the budget should be cut or raised and whether the evaluations are being produced and what are the results of those evaluations.    Without objection, I will allow now the former ranking member of the committee, Mr. Sherman, to make an opening statement from California. You are recognized.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. I will use my opening statement to renew the plea I have been making for the State Department for at least 5 years and that is that you employ a few individuals who are hired solely for their knowledge of Islamic jurisprudence, Islamic history, and Islamic law. To think that we can combat Islamic extremist terrorism without a single person at the State Department who has memorized the Quran means that we don't understand the mental world, the theological world that our potential adversaries live in.    We have a State Department with people who think that you can show the evil of al-Baghdadi if you can show him personally executing a defenseless Yazidi. The fact is they will put that up on their Web page as a recruitment tool. We need people who understand that if you could just get a picture of him eating a ham sandwich, that would undermine ISIS and its recruiting ability.    I remember the conflict between the United States and Indonesia over whether Indonesia would give us samples of avian flu and called an Islamic scholar who said, well, we would turn to the hadith about what the prophet said about rabies, which is, after all, just another virus that infects an animal. That is not the kind of knowledge that you can get at Princeton. Woodrow Wilson did a great job. He did not memorize the Quran.    So we need State Department people to be able to have access onsite to that kind of scholarship and to an understanding of Islamic jurisprudence that is every bit as sophisticated as the knowledge we have on the Vienna Convention on the Law of Treaties and why the Habsburgs took this or that position in the negotiations in 18 whatever when that--we have a Eurocentric body of knowledge in a very smart State Department, and we are going to have to hire just a few people who would never pass the test because it is written by the Woodrow Wilson school and instead could pass the test to demonstrate a real knowledge of Islam.    With that, I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman, for conducting this hearing. I would also like to thank our witness, Mr. Siberell, for being here to discuss the State Department's Counterterrorism Bureau.    In our country's fight against terrorism, one indelible truth has been stated over and over, and it is in order to truly degrade and ultimately defeat foreign terrorists, organizations like ISIS and al-Qaeda, we need a whole government-effort approach. The capacity-building programs funded and coordinated by the State Department's Counterterrorism Bureau are the types of activities in which our Government must continue to engage if we are to be successful in achieving the Bureau's mission of forging partnerships with our partners at home and abroad in counterterrorism law enforcement, counter-threat financing, counter-radicalization efforts, border security, and restricted terrorist travel.    Undoubtedly, the Bureau has worked to accomplish these critical objectives while the State Department has revamped its efforts to tackle one of the hardest aspects of counterterrorism, and that is combating violent extremism.    The new Center for Global Engagement is attempting to effectively coordinate, integrate, and synchronize messaging to foreign audiences that undermines the disinformation espoused by violent extremist groups. To be sure, this is not an easy task, and we will hear in detail from Mr. Siberell on the challenges facing the Bureau.    I am particularly interested in hearing how leadership has addressed a Government Accountability Office report released last year on resources, performance, and coordination within the Bureau.    Finally, it is vital that we ensure that funds appropriated, the Counterterrorism Bureau for these capacity-building programs are being used wisely, and the United States is getting a good return on its investment.    As I stated at the beginning, the Counterterrorism Bureau plays a critical role in our fight against terrorism, particularly with regards to interagency and regional collaboration. I look forward to hearing from our witness today and to discuss the issues that will ensure.    I yield back.</t>
   </si>
   <si>
@@ -76,6 +97,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Siberell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Siberell. Thank you, Mr. Chairman. Chairman Poe, Ranking Member Keating, members of the subcommittee, thank you for the opportunity to appear before you today.    This afternoon, I would like to briefly highlight the Bureau of Counterterrorism's work to advance the foremost counterterrorism priorities of the United States.    As you noted, Mr. Chairman, I have submitted a longer statement for the record.    As you know, the United States faces a fluid and fast-changing terrorism threat environment. The international community has made progress in degrading terrorism safe havens, but terrorist groups, especially ISIL and al-Qaeda, remain resilient.    Recent attacks in Bamako, Beirut, Brussels, Jakarta, and Paris have demonstrated the reach and continued determination of these groups to commit violence against civilians. These and other attacks have raised the urgency and political will of our partners to act against the evolving threat posed by ISIL, al-Qaeda, and their affiliates.    President Obama has called for the United States to develop more effective partnerships around the world to confront, disrupt, and defeat the global threat from terrorism. The Bureau of Counterterrorism is playing a critical role in developing those partnerships.    Success of U.S. counterterrorism efforts increasingly depends upon capable civilian partners, police, prosecutors, border and aviation security personnel, prison officials, and community leaders. As with our own domestic experience, these actors are on the frontlines in preventing and responding to terrorism in their communities.    The Bureau is leading efforts to build capacity and cooperation among these various civilian actors. We appreciate the Congress' appropriation of $175 million for the Counterterrorism Partnership's Fund in Fiscal Year 2016. We ask for your continued support in Fiscal Year 2017. With these resources we will strengthen the ability of key law enforcement and criminal justice actors from the Sahel to Southeast Asia. We are focusing on supporting countries that can help prevent ISIL's global expansion while not losing sight of al-Qaeda and its affiliates.    We are expanding our engagement with European partners to ensure they enhance capabilities to stem the flow of foreign terrorist fighters, improve information-sharing, and disrupt local terrorist recruitment networks. We believe these efforts are yielding results. Since 2014, 45 countries with which we have engaged have passed new laws or updated existing laws to address foreign terrorist fighters.    Through the Bureau's diplomatic efforts, we now have enhanced information-sharing arrangements with 55 countries to assist efforts to identify, track, and deter the travel of known and suspected terrorists. We have also supported INTERPOL to enhance its ability to share critical foreign terrorist fighter identity data with countries around the world. Fifty-eight countries plus the United Nations now contribute foreign terrorist fighter profiles to INTERPOL.    As part of our Fiscal Year 2017 request, we have also asked for additional funding for our Terrorist Interdiction Program. This program provides a highly valuable capability for countries to strengthen border controls through enhanced technology and training.    Mr. Chairman, as part of our overall strategy, we believe that we must increase our focus on preventing the spread of violent extremism to stop the radicalization, recruitment, and mobilization of people, especially young people, to engage in terrorist activities.    Secretary Kerry has directed the Bureau of Counterterrorism to play the lead role in a more strategic, integrated, and ultimately accountable approach to countering violent extremism. As notified to the Congress, the Department is increasing personnel resources in the Bureau to support this mission and renaming the Bureau as the Bureau of Counterterrorism and Countering Violent Extremism. We will be working very closely with the newly established interagency Global Engagement Center and USAID in this effort.    The Department has also requested additional resources for CVE programming in Fiscal Year 2017, including as part of the Counterterrorism Partnerships Fund to expand programs to help counter violent extremist recruitment and messaging.    Finally, Mr. Chairman, as documented in our statement for the record, we have made changes within the Bureau over the past year to foster a culture of strategic planning, learning, innovation, and collaboration. We have enhanced the monitoring and evaluation of our foreign assistance programming, especially our largest programs. Since I last testified before this committee, we have launched a comprehensive third-party evaluation of our Antiterrorism Assistance Program. That evaluation will be completed later this month. We have also awarded a new third-party evaluation of our CVE programs. We look forward to briefing you and your staff on the results of these evaluations.    Mr. Chairman, there is much more work to do. The terrorism landscape is dynamic, and we must continue to enhance and adapt our efforts. I am proud of what we are accomplishing at the Bureau of Counterterrorism. We have a talented team of people who are committed to the work of countering terrorism and keeping the country safe.    We greatly appreciate the interest of Congress and your committee in support of these efforts. I look forward to your questions and our discussion. Thank you.</t>
   </si>
   <si>
@@ -212,6 +236,12 @@
   </si>
   <si>
     <t>412513</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cook. Thank you very much, sir.    I wanted to ask you about Libya and the decisions that are going to be made about our arming certain individuals. And of course the fear is here we go again. Are we giving this to ISIS, ISIL, Daesh, whatever acronym you want to use or whatever you call them? And my fear with the State Department or any is that the right hand does not talk to the left hand in terms of coordinating this information so we make an informed choice and then we regret it afterwards. Can you briefly comment on that?</t>
@@ -593,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,1517 +653,1779 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20173.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20173.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Poe</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412435</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Keating</t>
@@ -623,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +643,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,1776 +668,1912 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
         <v>13</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
